--- a/rtl/spec_5g.xlsx
+++ b/rtl/spec_5g.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="222">
   <si>
     <t>frequency</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -730,6 +730,10 @@
   </si>
   <si>
     <t>XCAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1134,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1193,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>18</v>
@@ -1210,7 +1214,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1271,7 +1275,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>18</v>
@@ -1553,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="I21" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,7 +1669,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1689,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1697,6 +1701,11 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
